--- a/src/test/resources/ExcelData/TestExcelData2.xlsx
+++ b/src/test/resources/ExcelData/TestExcelData2.xlsx
@@ -49,15 +49,15 @@
 search([12,23,45,67,6,90],5)</t>
   </si>
   <si>
+    <t>SyntaxError: bad input on line 3</t>
+  </si>
+  <si>
     <t>def search(input_list, num):
     if num in input_list:
        print "element found"
     else:
      print "element not found"
 search([12,23,45,67,6,90],12)</t>
-  </si>
-  <si>
-    <t>SyntaxError: bad input on line 3</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -454,7 +454,7 @@
     </row>
     <row r="2" spans="1:2" ht="86.4">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -473,7 +473,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
